--- a/ValueSet-nigeria-primary-vaccine-status.xlsx
+++ b/ValueSet-nigeria-primary-vaccine-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T12:11:34+01:00</t>
+    <t>2025-06-23T13:45:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-nigeria-primary-vaccine-status.xlsx
+++ b/ValueSet-nigeria-primary-vaccine-status.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Primary vaccine Status</t>
+    <t>NG-Imm Primary vaccine Status VS</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T13:45:54+01:00</t>
+    <t>2025-06-24T09:13:37+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-nigeria-primary-vaccine-status.xlsx
+++ b/ValueSet-nigeria-primary-vaccine-status.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://nphcda.gov.ng/ig/fhir/ValueSet/ng-primary-vaccine-status</t>
+    <t>http://hl7.org/fhir/ValueSet/immunization-status</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T09:13:37+01:00</t>
+    <t>2025-06-25T06:29:04+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -109,9 +109,6 @@
   </si>
   <si>
     <t>System URI</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-status</t>
   </si>
 </sst>
 </file>
@@ -417,7 +414,7 @@
         <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-nigeria-primary-vaccine-status.xlsx
+++ b/ValueSet-nigeria-primary-vaccine-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-25T06:29:04+01:00</t>
+    <t>2025-06-30T08:07:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
